--- a/data/trans_orig/Hacinamiento_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14356</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7937</v>
+        <v>8176</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24448</v>
+        <v>24872</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03030042091020292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01675268116825587</v>
+        <v>0.01725651396192825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05160344424745315</v>
+        <v>0.05249698320307319</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13454</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7956</v>
+        <v>7157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21396</v>
+        <v>22991</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04401701183652845</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02602855872141557</v>
+        <v>0.02341425693415555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0699978600586799</v>
+        <v>0.07521642689753971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -786,19 +786,19 @@
         <v>27810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17961</v>
+        <v>18348</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39288</v>
+        <v>39638</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03567945966136234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0230432777046811</v>
+        <v>0.02353998453129055</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05040592302975967</v>
+        <v>0.05085504726078711</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>459420</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449328</v>
+        <v>448904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465839</v>
+        <v>465600</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9696995790897971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9483965557525469</v>
+        <v>0.9475030167969269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9832473188317442</v>
+        <v>0.9827434860380717</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -836,19 +836,19 @@
         <v>292207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284265</v>
+        <v>282670</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297705</v>
+        <v>298504</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9559829881634716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9300021399413201</v>
+        <v>0.9247835731024604</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9739714412785845</v>
+        <v>0.9765857430658446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>727</v>
@@ -857,19 +857,19 @@
         <v>751627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740149</v>
+        <v>739799</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761476</v>
+        <v>761089</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9643205403386377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9495940769702403</v>
+        <v>0.9491449527392136</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9769567222953189</v>
+        <v>0.9764600154687099</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2831</v>
+        <v>2854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14110</v>
+        <v>12845</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01815241244275901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007732855149868754</v>
+        <v>0.007794947977144497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03854082242247995</v>
+        <v>0.03508577694342824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -982,19 +982,19 @@
         <v>17357</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10266</v>
+        <v>9955</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26476</v>
+        <v>28541</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04679358891545014</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02767605005572558</v>
+        <v>0.02683740055460417</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07137789175984181</v>
+        <v>0.07694611292607062</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>24003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15251</v>
+        <v>16529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35532</v>
+        <v>34693</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03256679601245328</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02069223566539419</v>
+        <v>0.02242673529444892</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04821063092127</v>
+        <v>0.04707230539962106</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>359452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351988</v>
+        <v>353253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363267</v>
+        <v>363244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.981847587557241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9614591775775191</v>
+        <v>0.964914223056571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9922671448501312</v>
+        <v>0.9922050520228555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>346</v>
@@ -1053,19 +1053,19 @@
         <v>353569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>344450</v>
+        <v>342385</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>360660</v>
+        <v>360971</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9532064110845498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9286221082401581</v>
+        <v>0.9230538870739297</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.972323949944274</v>
+        <v>0.973162599445396</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>688</v>
@@ -1074,19 +1074,19 @@
         <v>713021</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>701492</v>
+        <v>702331</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>721773</v>
+        <v>720495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9674332039875467</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9517893690787299</v>
+        <v>0.952927694600379</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9793077643346055</v>
+        <v>0.9775732647055511</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17594</v>
+        <v>18505</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37200</v>
+        <v>38989</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04986745443859718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03256788584641282</v>
+        <v>0.03425434784803508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06886146496546224</v>
+        <v>0.07217137279870156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,19 +1199,19 @@
         <v>10301</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5524</v>
+        <v>4569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20050</v>
+        <v>19143</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06139272529511745</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03292360701535101</v>
+        <v>0.02723192737353412</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1195004329319081</v>
+        <v>0.1140966371842495</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1220,19 +1220,19 @@
         <v>37240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26610</v>
+        <v>25912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50601</v>
+        <v>49561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05259870202866715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0375844335490241</v>
+        <v>0.03659903991615079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07147057639842</v>
+        <v>0.07000061181454072</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>513283</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503022</v>
+        <v>501233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>522628</v>
+        <v>521717</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9501325455614028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9311385350345377</v>
+        <v>0.9278286272012984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9674321141535871</v>
+        <v>0.9657456521519647</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>155</v>
@@ -1270,19 +1270,19 @@
         <v>157481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147732</v>
+        <v>148639</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162258</v>
+        <v>163213</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9386072747048826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8804995670680912</v>
+        <v>0.8859033628157498</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9670763929846489</v>
+        <v>0.9727680726264658</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>658</v>
@@ -1291,19 +1291,19 @@
         <v>670763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>657402</v>
+        <v>658442</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681393</v>
+        <v>682091</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9474012979713329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.92852942360158</v>
+        <v>0.9299993881854594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9624155664509758</v>
+        <v>0.9634009600838493</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>54345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40665</v>
+        <v>40051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71860</v>
+        <v>71018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0439597451902476</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0328939042767788</v>
+        <v>0.03239717830782391</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05812748330818967</v>
+        <v>0.05744639251085538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1416,19 +1416,19 @@
         <v>39610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28231</v>
+        <v>28585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54649</v>
+        <v>54999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05545463941531885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0395235004823142</v>
+        <v>0.04001885876815839</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07650849918204246</v>
+        <v>0.07699838774190916</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -1437,19 +1437,19 @@
         <v>93956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75335</v>
+        <v>74961</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115765</v>
+        <v>115724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04816915758578304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03862254696629649</v>
+        <v>0.03843078869206019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05935019834497884</v>
+        <v>0.05932906234393012</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1181911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1164396</v>
+        <v>1165238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1195591</v>
+        <v>1196205</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9560402548097524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9418725166918104</v>
+        <v>0.9425536074891446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9671060957232213</v>
+        <v>0.9676028216921762</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>658</v>
@@ -1487,19 +1487,19 @@
         <v>674675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>659636</v>
+        <v>659286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>686054</v>
+        <v>685700</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9445453605846812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9234915008179573</v>
+        <v>0.9230016122580905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9604764995176858</v>
+        <v>0.9599811412318411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1830</v>
@@ -1508,19 +1508,19 @@
         <v>1856586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1834777</v>
+        <v>1834818</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1875207</v>
+        <v>1875581</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.951830842414217</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9406498016550212</v>
+        <v>0.94067093765607</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9613774530337035</v>
+        <v>0.96156921130794</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>34853</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23980</v>
+        <v>24120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48761</v>
+        <v>50003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1004066687948512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06908133234884158</v>
+        <v>0.06948463742979744</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1404724661444896</v>
+        <v>0.1440505835967578</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1633,19 +1633,19 @@
         <v>51077</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38603</v>
+        <v>37656</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69061</v>
+        <v>67246</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0902581524131594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06821527716524146</v>
+        <v>0.06654183994099785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1220359495806863</v>
+        <v>0.118829671503365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -1654,19 +1654,19 @@
         <v>85931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68745</v>
+        <v>66919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106118</v>
+        <v>105340</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09411649174513477</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0752934691436391</v>
+        <v>0.07329366883472278</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1162263932085546</v>
+        <v>0.1153747971749251</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>312268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>298360</v>
+        <v>297118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>323141</v>
+        <v>323001</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8995933312051487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8595275338555106</v>
+        <v>0.8559494164032424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9309186676511585</v>
+        <v>0.9305153625702026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>490</v>
@@ -1704,19 +1704,19 @@
         <v>514827</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>496843</v>
+        <v>498658</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>527301</v>
+        <v>528248</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9097418475868406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8779640504193136</v>
+        <v>0.881170328496635</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9317847228347585</v>
+        <v>0.9334581600590022</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>797</v>
@@ -1725,19 +1725,19 @@
         <v>827094</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>806907</v>
+        <v>807685</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>844280</v>
+        <v>846106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9058835082548652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8837736067914455</v>
+        <v>0.884625202825075</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9247065308563612</v>
+        <v>0.9267063311652772</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>20167</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12325</v>
+        <v>12253</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29880</v>
+        <v>29615</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06806488776193328</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04159684065319497</v>
+        <v>0.04135386719702888</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1008457521203423</v>
+        <v>0.09995205944780339</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1850,19 +1850,19 @@
         <v>69260</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54397</v>
+        <v>54794</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85833</v>
+        <v>85269</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05564602346471814</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04370450348026414</v>
+        <v>0.04402364824341725</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06896171480087755</v>
+        <v>0.06850875450559328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -1871,19 +1871,19 @@
         <v>89427</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72320</v>
+        <v>72911</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107571</v>
+        <v>108774</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05803393978653255</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04693223592598048</v>
+        <v>0.04731583745749252</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.069808614483428</v>
+        <v>0.07058885138501085</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>276128</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266415</v>
+        <v>266680</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283970</v>
+        <v>284042</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9319351122380667</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8991542478796576</v>
+        <v>0.9000479405521964</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9584031593468049</v>
+        <v>0.958646132802971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1166</v>
@@ -1921,19 +1921,19 @@
         <v>1175391</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1158818</v>
+        <v>1159382</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1190254</v>
+        <v>1189857</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9443539765352819</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9310382851991224</v>
+        <v>0.9314912454944065</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9562954965197357</v>
+        <v>0.9559763517565826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1450</v>
@@ -1942,19 +1942,19 @@
         <v>1451519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1433375</v>
+        <v>1432172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1468626</v>
+        <v>1468035</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9419660602134674</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.930191385516572</v>
+        <v>0.9294111486149892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9530677640740195</v>
+        <v>0.9526841625425074</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>157307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133421</v>
+        <v>132948</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>182806</v>
+        <v>182272</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04825701884275879</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04092964397354764</v>
+        <v>0.04078461388337307</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05607940032303989</v>
+        <v>0.05591566540223005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>188</v>
@@ -2067,19 +2067,19 @@
         <v>201060</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>174919</v>
+        <v>174125</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>231780</v>
+        <v>231679</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05967560906327364</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05191699261397487</v>
+        <v>0.05168112758303337</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06879358566486814</v>
+        <v>0.06876368817301255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>334</v>
@@ -2088,19 +2088,19 @@
         <v>358366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>321768</v>
+        <v>319325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>396853</v>
+        <v>399353</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0540605708575268</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04853959622459745</v>
+        <v>0.04817114448247847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05986635825617998</v>
+        <v>0.06024345410517609</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3102462</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3076963</v>
+        <v>3077497</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3126348</v>
+        <v>3126821</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9517429811572412</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9439205996769602</v>
+        <v>0.94408433459777</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9590703560264524</v>
+        <v>0.9592153861166269</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3099</v>
@@ -2138,19 +2138,19 @@
         <v>3168149</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3137429</v>
+        <v>3137530</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3194290</v>
+        <v>3195084</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9403243909367264</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9312064143351317</v>
+        <v>0.9312363118269873</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.948083007386025</v>
+        <v>0.9483188724169664</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6150</v>
@@ -2159,19 +2159,19 @@
         <v>6270612</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6232125</v>
+        <v>6229625</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6307210</v>
+        <v>6309653</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9459394291424732</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9401336417438195</v>
+        <v>0.9397565458948237</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9514604037754025</v>
+        <v>0.9518288555175214</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>8062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3750</v>
+        <v>3893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15111</v>
+        <v>15776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01843900924770178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008577385026923979</v>
+        <v>0.008903066350080592</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03456153476166656</v>
+        <v>0.03608306676553149</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2526,19 +2526,19 @@
         <v>14307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8022</v>
+        <v>8107</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23068</v>
+        <v>23702</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04549823621789181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02551214948036851</v>
+        <v>0.02578060261853459</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07335900411739522</v>
+        <v>0.0753751737499839</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2547,19 +2547,19 @@
         <v>22369</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13562</v>
+        <v>14083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32034</v>
+        <v>32985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02975906360160401</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01804263972261319</v>
+        <v>0.01873545256355816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04261793456893962</v>
+        <v>0.04388262713611107</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>429149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422100</v>
+        <v>421435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>433461</v>
+        <v>433318</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9815609907522982</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9654384652383335</v>
+        <v>0.9639169332344687</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.991422614973076</v>
+        <v>0.9910969336499194</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -2597,19 +2597,19 @@
         <v>300147</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291386</v>
+        <v>290752</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306432</v>
+        <v>306347</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9545017637821082</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9266409958826048</v>
+        <v>0.9246248262500162</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9744878505196315</v>
+        <v>0.9742193973814658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>665</v>
@@ -2618,19 +2618,19 @@
         <v>729296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>719631</v>
+        <v>718680</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>738103</v>
+        <v>737582</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.970240936398396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9573820654310604</v>
+        <v>0.956117372863889</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9819573602773869</v>
+        <v>0.9812645474364419</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>10668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5392</v>
+        <v>5296</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18775</v>
+        <v>18969</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02561911943676725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01294740875441786</v>
+        <v>0.01271660436670855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04508694107482439</v>
+        <v>0.04555132892715303</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -2743,19 +2743,19 @@
         <v>20377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12847</v>
+        <v>13271</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31559</v>
+        <v>31271</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06067866733290254</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03825448319242054</v>
+        <v>0.03951788604407219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09397469710106449</v>
+        <v>0.09311868952407699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2764,19 +2764,19 @@
         <v>31046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21387</v>
+        <v>21293</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44553</v>
+        <v>43627</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04127061809830514</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02843021513031513</v>
+        <v>0.02830587042070586</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05922636053801299</v>
+        <v>0.05799529810782717</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>405758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>397651</v>
+        <v>397457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>411034</v>
+        <v>411130</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9743808805632328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9549130589251756</v>
+        <v>0.954448671072847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9870525912455821</v>
+        <v>0.9872833956332915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>284</v>
@@ -2814,19 +2814,19 @@
         <v>315447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>304265</v>
+        <v>304553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322977</v>
+        <v>322553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9393213326670975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9060253028989357</v>
+        <v>0.906881310475923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9617455168075796</v>
+        <v>0.9604821139559278</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -2835,19 +2835,19 @@
         <v>721204</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>707697</v>
+        <v>708623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730863</v>
+        <v>730957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9587293819016949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.940773639461987</v>
+        <v>0.9420047018921729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9715697848696849</v>
+        <v>0.9716941295792939</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>32735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23206</v>
+        <v>22384</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45992</v>
+        <v>44360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05226158906696318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03704812421559333</v>
+        <v>0.03573619032324945</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07342580924693218</v>
+        <v>0.07082026708058003</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2960,19 +2960,19 @@
         <v>14493</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8228</v>
+        <v>8439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23498</v>
+        <v>23025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05571445724230518</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0316293764580027</v>
+        <v>0.03244210698087249</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09033343077491227</v>
+        <v>0.08851374513229623</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -2981,19 +2981,19 @@
         <v>47228</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36228</v>
+        <v>36841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61929</v>
+        <v>62016</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05327477683797634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04086569182688801</v>
+        <v>0.04155797551669881</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06985802862850266</v>
+        <v>0.06995607731696231</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>593637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580380</v>
+        <v>582012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>603166</v>
+        <v>603988</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9477384109330368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9265741907530677</v>
+        <v>0.92917973291942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9629518757844067</v>
+        <v>0.9642638096767507</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -3031,19 +3031,19 @@
         <v>245636</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236631</v>
+        <v>237104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>251901</v>
+        <v>251690</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9442855427576948</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9096665692250879</v>
+        <v>0.9114862548677037</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9683706235419973</v>
+        <v>0.9675578930191275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>786</v>
@@ -3052,19 +3052,19 @@
         <v>839274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>824573</v>
+        <v>824486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>850274</v>
+        <v>849661</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9467252231620237</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9301419713714973</v>
+        <v>0.9300439226830377</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.959134308173112</v>
+        <v>0.9584420244833012</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>67804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52466</v>
+        <v>53089</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85971</v>
+        <v>87779</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05875193376333016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04546139494597468</v>
+        <v>0.04600125180834713</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07449271081930763</v>
+        <v>0.07605937922289453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3177,19 +3177,19 @@
         <v>59359</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45852</v>
+        <v>45538</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76025</v>
+        <v>77478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0778602331739088</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06014319678723728</v>
+        <v>0.05973136647373973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09971982732877009</v>
+        <v>0.1016254675771624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -3198,19 +3198,19 @@
         <v>127164</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105477</v>
+        <v>105417</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152629</v>
+        <v>152688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06635335485610018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05503706885850857</v>
+        <v>0.05500621208605568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07964114345130839</v>
+        <v>0.07967183008069098</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1086276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1068109</v>
+        <v>1066301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1101614</v>
+        <v>1100991</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9412480662366699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9255072891806925</v>
+        <v>0.9239406207771055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9545386050540254</v>
+        <v>0.953998748191653</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>653</v>
@@ -3248,19 +3248,19 @@
         <v>703024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>686358</v>
+        <v>684905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>716531</v>
+        <v>716845</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9221397668260912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9002801726712291</v>
+        <v>0.8983745324228375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9398568032127625</v>
+        <v>0.9402686335262601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1669</v>
@@ -3269,19 +3269,19 @@
         <v>1789299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1763834</v>
+        <v>1763775</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1810986</v>
+        <v>1811046</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9336466451438998</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9203588565486917</v>
+        <v>0.920328169919309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9449629311414915</v>
+        <v>0.9449937879139443</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>33981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24558</v>
+        <v>24401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46448</v>
+        <v>47944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06668292351886064</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04819217603632511</v>
+        <v>0.0478823020604571</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09114640082900849</v>
+        <v>0.09408201672322698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -3394,19 +3394,19 @@
         <v>55336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42616</v>
+        <v>42268</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72261</v>
+        <v>71559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07304720722926282</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05625506600418914</v>
+        <v>0.05579634972273862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09538842176884908</v>
+        <v>0.09446182636890033</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -3415,19 +3415,19 @@
         <v>89318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71762</v>
+        <v>70828</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109786</v>
+        <v>109063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0704877385736473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05663350352600796</v>
+        <v>0.05589582731568275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08664100771671172</v>
+        <v>0.08607015741957198</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>475613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>463146</v>
+        <v>461650</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>485036</v>
+        <v>485193</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9333170764811394</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9088535991709905</v>
+        <v>0.9059179832767728</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9518078239636746</v>
+        <v>0.9521176979395427</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>648</v>
@@ -3465,19 +3465,19 @@
         <v>702208</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>685283</v>
+        <v>685985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>714928</v>
+        <v>715276</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9269527927707372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9046115782311512</v>
+        <v>0.9055381736310998</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9437449339958109</v>
+        <v>0.9442036502772614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1100</v>
@@ -3486,19 +3486,19 @@
         <v>1177820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1157352</v>
+        <v>1158075</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1195376</v>
+        <v>1196310</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9295122614263527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9133589922832885</v>
+        <v>0.913929842580428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9433664964739922</v>
+        <v>0.9441041726843172</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>9099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4064</v>
+        <v>4089</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15947</v>
+        <v>17069</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03426276245206496</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01530338730523846</v>
+        <v>0.01539669255624958</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06004755695196558</v>
+        <v>0.06427490808161253</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -3611,19 +3611,19 @@
         <v>55825</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41962</v>
+        <v>43545</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72767</v>
+        <v>72646</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05051333744580393</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03796881078336554</v>
+        <v>0.03940181622705949</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06584260689763886</v>
+        <v>0.06573370640704684</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -3632,19 +3632,19 @@
         <v>64925</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50024</v>
+        <v>51410</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80840</v>
+        <v>83250</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04736491598482456</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03649422414043369</v>
+        <v>0.0375056846162046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05897568791007209</v>
+        <v>0.06073378992006619</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>256469</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249621</v>
+        <v>248499</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261504</v>
+        <v>261479</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9657372375479351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9399524430480345</v>
+        <v>0.9357250919183875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9846966126947616</v>
+        <v>0.9846033074437505</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>987</v>
@@ -3682,19 +3682,19 @@
         <v>1049337</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1032395</v>
+        <v>1032516</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1063200</v>
+        <v>1061617</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9494866625541961</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9341573931023611</v>
+        <v>0.9342662935929532</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9620311892166346</v>
+        <v>0.9605981837729406</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1242</v>
@@ -3703,19 +3703,19 @@
         <v>1305805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1289890</v>
+        <v>1287480</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320706</v>
+        <v>1319320</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9526350840151755</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9410243120899279</v>
+        <v>0.9392662100799338</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9635057758595663</v>
+        <v>0.9624943153837954</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>162350</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138856</v>
+        <v>138921</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190206</v>
+        <v>188179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04762047688525252</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04072911809706331</v>
+        <v>0.04074823877100965</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05579106559188247</v>
+        <v>0.05519644867429143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>206</v>
@@ -3828,19 +3828,19 @@
         <v>219699</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>191100</v>
+        <v>189924</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>248729</v>
+        <v>249079</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06214081762263753</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05405168888146256</v>
+        <v>0.05371905691245203</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0703520419965782</v>
+        <v>0.07045104433263019</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>361</v>
@@ -3849,19 +3849,19 @@
         <v>382049</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>343543</v>
+        <v>344435</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>421165</v>
+        <v>426929</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05501262715613181</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04946801709755514</v>
+        <v>0.04959650217177625</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06064515677957031</v>
+        <v>0.0614750901078157</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3246901</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3219045</v>
+        <v>3221072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3270395</v>
+        <v>3270330</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9523795231147475</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9442089344081176</v>
+        <v>0.9448035513257085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9592708819029367</v>
+        <v>0.9592517612289903</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3071</v>
@@ -3899,19 +3899,19 @@
         <v>3315798</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3286768</v>
+        <v>3286418</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3344397</v>
+        <v>3345573</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9378591823773624</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9296479580034217</v>
+        <v>0.9295489556673698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9459483111185373</v>
+        <v>0.946280943087548</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6109</v>
@@ -3920,19 +3920,19 @@
         <v>6562699</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6523583</v>
+        <v>6517819</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6601205</v>
+        <v>6600313</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9449873728438681</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9393548432204295</v>
+        <v>0.9385249098921843</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9505319829024449</v>
+        <v>0.9504034978282238</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>8212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3888</v>
+        <v>3716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15302</v>
+        <v>15696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01918065238503004</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009080702216174344</v>
+        <v>0.008678647908510759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03574133334606269</v>
+        <v>0.03666258812630999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4287,19 +4287,19 @@
         <v>14357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8251</v>
+        <v>7243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23921</v>
+        <v>23379</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04158940809672499</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02390243470136246</v>
+        <v>0.02098042605050878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06929437325851286</v>
+        <v>0.06772197930299884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -4308,19 +4308,19 @@
         <v>22569</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13643</v>
+        <v>14075</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33827</v>
+        <v>33996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02918373062625693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01764147667718421</v>
+        <v>0.01820074509842987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04374118366773877</v>
+        <v>0.04396003573571243</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>419917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412827</v>
+        <v>412433</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424241</v>
+        <v>424413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9808193476149699</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9642586666539373</v>
+        <v>0.96333741187369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9909192977838256</v>
+        <v>0.9913213520914892</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4358,19 +4358,19 @@
         <v>330856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321292</v>
+        <v>321834</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336962</v>
+        <v>337970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.958410591903275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9307056267414872</v>
+        <v>0.9322780206970013</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9760975652986376</v>
+        <v>0.9790195739494919</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>704</v>
@@ -4379,19 +4379,19 @@
         <v>750773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>739515</v>
+        <v>739346</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759699</v>
+        <v>759267</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9708162693737431</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9562588163322613</v>
+        <v>0.9560399642642876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.982358523322816</v>
+        <v>0.9817992549015702</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>12233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6559</v>
+        <v>6756</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20399</v>
+        <v>20730</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03278355237605888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01757654441036657</v>
+        <v>0.01810598430128231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05466680367436468</v>
+        <v>0.05555636948414571</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4504,19 +4504,19 @@
         <v>14365</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8233</v>
+        <v>8220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23509</v>
+        <v>22825</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03878857950080026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02223094746292183</v>
+        <v>0.02219595642893077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0634780317200664</v>
+        <v>0.06163137578798748</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4525,19 +4525,19 @@
         <v>26598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17754</v>
+        <v>17865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38944</v>
+        <v>38446</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03577477838996426</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02387902751776222</v>
+        <v>0.02402908696581674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05237953114158967</v>
+        <v>0.05171038004120936</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>360910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352744</v>
+        <v>352413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366584</v>
+        <v>366387</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9672164476239411</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9453331963256353</v>
+        <v>0.9444436305158543</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9824234555896335</v>
+        <v>0.9818940156987177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -4575,19 +4575,19 @@
         <v>355983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>346839</v>
+        <v>347523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362115</v>
+        <v>362128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9612114204991997</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9365219682799341</v>
+        <v>0.9383686242120122</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9777690525370782</v>
+        <v>0.9778040435710691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>674</v>
@@ -4596,19 +4596,19 @@
         <v>716893</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>704547</v>
+        <v>705045</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725737</v>
+        <v>725626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9642252216100358</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9476204688584097</v>
+        <v>0.948289619958791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9761209724822375</v>
+        <v>0.9759709130341834</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>24117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16226</v>
+        <v>15756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37068</v>
+        <v>37321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04669235768536381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03141508186345879</v>
+        <v>0.030505123074877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07176713597490629</v>
+        <v>0.07225656384705643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4721,19 +4721,19 @@
         <v>4243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9814</v>
+        <v>9940</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02553899606984562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006498761400419998</v>
+        <v>0.006370529003901586</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05907851130343202</v>
+        <v>0.0598358073403974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4742,19 +4742,19 @@
         <v>28359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18621</v>
+        <v>17937</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41442</v>
+        <v>40730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04154451386915377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02727782110074146</v>
+        <v>0.0262769868511925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06070992691839046</v>
+        <v>0.0596663647108697</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>492387</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>479436</v>
+        <v>479183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500278</v>
+        <v>500748</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9533076423146362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9282328640250939</v>
+        <v>0.9277434361529437</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9685849181365412</v>
+        <v>0.969494876925123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -4792,19 +4792,19 @@
         <v>161880</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156309</v>
+        <v>156183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165043</v>
+        <v>165065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9744610039301543</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9409214886965681</v>
+        <v>0.9401641926596034</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9935012385995801</v>
+        <v>0.9936294709960984</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>626</v>
@@ -4813,19 +4813,19 @@
         <v>654268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>641185</v>
+        <v>641897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664006</v>
+        <v>664690</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9584554861308462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9392900730816094</v>
+        <v>0.9403336352891303</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9727221788992584</v>
+        <v>0.9737230131488074</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>45814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33986</v>
+        <v>32691</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61311</v>
+        <v>61145</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04005932622243339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02971732261153896</v>
+        <v>0.02858512399962651</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05360995628865394</v>
+        <v>0.05346519635181586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -4938,19 +4938,19 @@
         <v>42387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30627</v>
+        <v>31260</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56000</v>
+        <v>56666</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05164210889341028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03731505325038592</v>
+        <v>0.03808561530218237</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06822764848634548</v>
+        <v>0.0690389400001304</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -4959,19 +4959,19 @@
         <v>88200</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72270</v>
+        <v>70805</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108788</v>
+        <v>108138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04489887613678184</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03678946067690511</v>
+        <v>0.03604363069273144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05537901755264538</v>
+        <v>0.05504827556975354</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1097830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1082333</v>
+        <v>1082499</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1109658</v>
+        <v>1110953</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9599406737775666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9463900437113461</v>
+        <v>0.9465348036481842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.970282677388461</v>
+        <v>0.9714148760003736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>752</v>
@@ -5009,19 +5009,19 @@
         <v>778394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>764781</v>
+        <v>764115</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>790154</v>
+        <v>789521</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9483578911065897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9317723515136545</v>
+        <v>0.9309610599998697</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9626849467496141</v>
+        <v>0.9619143846978176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1807</v>
@@ -5030,19 +5030,19 @@
         <v>1876225</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1855637</v>
+        <v>1856287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892155</v>
+        <v>1893620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9551011238632181</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9446209824473546</v>
+        <v>0.9449517244302464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9632105393230949</v>
+        <v>0.9639563693072685</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>34700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24506</v>
+        <v>23014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50037</v>
+        <v>48586</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05606559670982476</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03959488140464353</v>
+        <v>0.03718371576164311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08084532283724409</v>
+        <v>0.07850129161852143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -5155,19 +5155,19 @@
         <v>48764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35842</v>
+        <v>36444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63172</v>
+        <v>64494</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06645622171842909</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04884571126208193</v>
+        <v>0.04966720271805955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08609170232058432</v>
+        <v>0.08789302522046812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -5176,19 +5176,19 @@
         <v>83464</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67179</v>
+        <v>67367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104588</v>
+        <v>102591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06170201239008011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04966304629720485</v>
+        <v>0.04980187819415884</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07731780827272011</v>
+        <v>0.07584184494154057</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>584224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>568887</v>
+        <v>570338</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>594418</v>
+        <v>595910</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9439344032901752</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9191546771627574</v>
+        <v>0.92149870838148</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9604051185953565</v>
+        <v>0.9628162842383569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>646</v>
@@ -5226,19 +5226,19 @@
         <v>685009</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>670601</v>
+        <v>669279</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>697931</v>
+        <v>697329</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9335437782815709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9139082976794154</v>
+        <v>0.9121069747795315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9511542887379181</v>
+        <v>0.9503327972819403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1212</v>
@@ -5247,19 +5247,19 @@
         <v>1269233</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1248109</v>
+        <v>1250106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1285518</v>
+        <v>1285330</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9382979876099199</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9226821917272798</v>
+        <v>0.9241581550584594</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9503369537027951</v>
+        <v>0.9501981218058413</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>20048</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13219</v>
+        <v>12165</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32275</v>
+        <v>31594</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07008992296326021</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04621510047365077</v>
+        <v>0.04252947318403013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1128365127406174</v>
+        <v>0.1104566047403421</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -5372,19 +5372,19 @@
         <v>36199</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26621</v>
+        <v>25714</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50080</v>
+        <v>49955</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0336099882725693</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02471730667035094</v>
+        <v>0.02387496421284817</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04649837058037329</v>
+        <v>0.04638201795489665</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -5393,19 +5393,19 @@
         <v>56247</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42482</v>
+        <v>43144</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73164</v>
+        <v>74563</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04126517523726168</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0311665654638756</v>
+        <v>0.0316522439959446</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05367645089097203</v>
+        <v>0.05470267088756203</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>265985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253758</v>
+        <v>254439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272814</v>
+        <v>273868</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9299100770367398</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8871634872593823</v>
+        <v>0.8895433952596579</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9537848995263492</v>
+        <v>0.95747052681597</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>954</v>
@@ -5443,19 +5443,19 @@
         <v>1040827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1026946</v>
+        <v>1027071</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1050405</v>
+        <v>1051312</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9663900117274307</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9535016294196267</v>
+        <v>0.9536179820451033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.975282693329649</v>
+        <v>0.9761250357871518</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1207</v>
@@ -5464,19 +5464,19 @@
         <v>1306812</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1289895</v>
+        <v>1288496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320577</v>
+        <v>1319915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9587348247627383</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9463235491090281</v>
+        <v>0.9452973291124384</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9688334345361245</v>
+        <v>0.9683477560040555</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>145123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122441</v>
+        <v>122412</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>171161</v>
+        <v>171443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.043109708677407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03637181294192374</v>
+        <v>0.03636299484004879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05084437654482227</v>
+        <v>0.050927928681903</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>155</v>
@@ -5589,19 +5589,19 @@
         <v>160315</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>136939</v>
+        <v>138162</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>185593</v>
+        <v>187947</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04563123481223633</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03897761217609813</v>
+        <v>0.03932582413264802</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05282626765347261</v>
+        <v>0.05349642204333335</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>285</v>
@@ -5610,19 +5610,19 @@
         <v>305438</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>275744</v>
+        <v>273101</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>347314</v>
+        <v>343932</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04439739058206919</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04008113893978257</v>
+        <v>0.03969693872303172</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05048427611515086</v>
+        <v>0.0499927584325521</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3221253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3195215</v>
+        <v>3194933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3243935</v>
+        <v>3243964</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.956890291322593</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9491556234551777</v>
+        <v>0.949072071318097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9636281870580761</v>
+        <v>0.9636370051599514</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3154</v>
@@ -5660,19 +5660,19 @@
         <v>3352950</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3327672</v>
+        <v>3325318</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3376326</v>
+        <v>3375103</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9543687651877637</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9471737323465277</v>
+        <v>0.9465035779566668</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9610223878239018</v>
+        <v>0.960674175867352</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6230</v>
@@ -5681,19 +5681,19 @@
         <v>6574203</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6532327</v>
+        <v>6535709</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6603897</v>
+        <v>6606540</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9556026094179308</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9495157238848491</v>
+        <v>0.9500072415674478</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9599188610602174</v>
+        <v>0.9603030612769682</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>13789</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7712</v>
+        <v>7450</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23119</v>
+        <v>23253</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02534754789736423</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01417713737834956</v>
+        <v>0.0136946978861036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04249852898524673</v>
+        <v>0.04274590459603454</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -6048,19 +6048,19 @@
         <v>10733</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5396</v>
+        <v>5792</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17544</v>
+        <v>18805</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02208907057413177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01110505914773155</v>
+        <v>0.0119198547642858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03610571514119494</v>
+        <v>0.03870120025896955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -6069,19 +6069,19 @@
         <v>24522</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15763</v>
+        <v>15999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36028</v>
+        <v>34829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02381022190399373</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01530519324843015</v>
+        <v>0.01553504586264653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03498285840983216</v>
+        <v>0.03381869823766112</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>530204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>520874</v>
+        <v>520740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>536281</v>
+        <v>536543</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9746524521026357</v>
+        <v>0.974652452102636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9575014710147536</v>
+        <v>0.9572540954039653</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9858228626216505</v>
+        <v>0.9863053021138963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>669</v>
@@ -6119,19 +6119,19 @@
         <v>475160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>468349</v>
+        <v>467088</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>480497</v>
+        <v>480101</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9779109294258682</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.963894284858805</v>
+        <v>0.9612987997410304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9888949408522685</v>
+        <v>0.9880801452357142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1202</v>
@@ -6140,19 +6140,19 @@
         <v>1005364</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>993858</v>
+        <v>995057</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1014123</v>
+        <v>1013887</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9761897780960064</v>
+        <v>0.9761897780960065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9650171415901678</v>
+        <v>0.9661813017623389</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9846948067515695</v>
+        <v>0.9844649541373532</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>8377</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2573</v>
+        <v>2677</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18605</v>
+        <v>19128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01748268805996097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005368949122663258</v>
+        <v>0.005586322358824336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03882901629695414</v>
+        <v>0.03991978799313869</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -6265,19 +6265,19 @@
         <v>9179</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5016</v>
+        <v>4985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15603</v>
+        <v>15549</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02201449788736217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01203003064994167</v>
+        <v>0.01195615060500735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03742415380782958</v>
+        <v>0.03729505788172578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -6286,19 +6286,19 @@
         <v>17555</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10353</v>
+        <v>10802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28549</v>
+        <v>27543</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01959125563741539</v>
+        <v>0.0195912556374154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01155413331530845</v>
+        <v>0.01205426841284858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0318595810189807</v>
+        <v>0.03073738510519437</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>470775</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460547</v>
+        <v>460024</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476579</v>
+        <v>476475</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9825173119400389</v>
+        <v>0.9825173119400391</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9611709837030462</v>
+        <v>0.9600802120068611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9946310508773368</v>
+        <v>0.9944136776411756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -6336,19 +6336,19 @@
         <v>407752</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401328</v>
+        <v>401382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>411915</v>
+        <v>411946</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.977985502112638</v>
+        <v>0.9779855021126377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9625758461921703</v>
+        <v>0.9627049421182741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9879699693500584</v>
+        <v>0.9880438493949926</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1041</v>
@@ -6357,19 +6357,19 @@
         <v>878528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>867534</v>
+        <v>868540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>885730</v>
+        <v>885281</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9804087443625846</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9681404189810193</v>
+        <v>0.9692626148948057</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9884458666846911</v>
+        <v>0.9879457315871515</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>10421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5471</v>
+        <v>5559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18796</v>
+        <v>18435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02232245492586671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01171987809410797</v>
+        <v>0.01190629307949904</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04026161976774566</v>
+        <v>0.03948826146248777</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -6482,19 +6482,19 @@
         <v>4817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11147</v>
+        <v>11676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02623072333326323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009026651697803959</v>
+        <v>0.009004961385758141</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06070448262258132</v>
+        <v>0.06358257923533892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -6503,19 +6503,19 @@
         <v>15238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8947</v>
+        <v>8585</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26026</v>
+        <v>24702</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02342573983060197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01375371957797695</v>
+        <v>0.01319776379352728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04000954931903898</v>
+        <v>0.03797531106963626</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>456434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>448059</v>
+        <v>448420</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>461384</v>
+        <v>461296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9776775450741333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9597383802322544</v>
+        <v>0.9605117385375123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.988280121905892</v>
+        <v>0.9880937069205009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>278</v>
@@ -6553,19 +6553,19 @@
         <v>178811</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172481</v>
+        <v>171952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181970</v>
+        <v>181974</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9737692766667367</v>
+        <v>0.9737692766667366</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9392955173774182</v>
+        <v>0.9364174207646609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.990973348302196</v>
+        <v>0.9909950386142418</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>751</v>
@@ -6574,19 +6574,19 @@
         <v>635245</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>624457</v>
+        <v>625781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641536</v>
+        <v>641898</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9765742601693981</v>
+        <v>0.9765742601693979</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9599904506809611</v>
+        <v>0.9620246889303637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9862462804220233</v>
+        <v>0.9868022362064727</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>33839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23114</v>
+        <v>23447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48814</v>
+        <v>49253</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02992794770065841</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0204419785296364</v>
+        <v>0.02073728209104692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04317210147083105</v>
+        <v>0.04356018821770485</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -6699,19 +6699,19 @@
         <v>21472</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14079</v>
+        <v>14268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31715</v>
+        <v>30480</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02516415607972646</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01650005949071116</v>
+        <v>0.01672126053623451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03716881144245544</v>
+        <v>0.03572147135798658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -6720,19 +6720,19 @@
         <v>55311</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42541</v>
+        <v>41947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72668</v>
+        <v>73212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02787911450403095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02144249539301054</v>
+        <v>0.02114295085596481</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03662769971045311</v>
+        <v>0.03690188029575746</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1096850</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1081875</v>
+        <v>1081436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1107575</v>
+        <v>1107242</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9700720522993417</v>
+        <v>0.9700720522993415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9568278985291696</v>
+        <v>0.9564398117822953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9795580214703637</v>
+        <v>0.979262717908953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1192</v>
@@ -6770,19 +6770,19 @@
         <v>831798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821555</v>
+        <v>822790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>839191</v>
+        <v>839002</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9748358439202736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9628311885575445</v>
+        <v>0.9642785286420134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9834999405092888</v>
+        <v>0.9832787394637654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2278</v>
@@ -6791,19 +6791,19 @@
         <v>1928649</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1911292</v>
+        <v>1910748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1941419</v>
+        <v>1942013</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9721208854959691</v>
+        <v>0.972120885495969</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9633723002895469</v>
+        <v>0.9630981197042423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9785575046069894</v>
+        <v>0.9788570491440352</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>18494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10853</v>
+        <v>11028</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29234</v>
+        <v>29133</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0326880896335883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01918326669382912</v>
+        <v>0.019491503453394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05167106827379856</v>
+        <v>0.05149353008947574</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -6916,19 +6916,19 @@
         <v>33336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24162</v>
+        <v>24495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43652</v>
+        <v>44059</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04048415683720547</v>
+        <v>0.04048415683720549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02934211532221689</v>
+        <v>0.02974714234780656</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05301167876291767</v>
+        <v>0.05350593375078971</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -6937,19 +6937,19 @@
         <v>51830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40333</v>
+        <v>39467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67303</v>
+        <v>65839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03730916446098198</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02903311995018065</v>
+        <v>0.02841006018082599</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04844700833730241</v>
+        <v>0.04739332451514695</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>547268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>536528</v>
+        <v>536629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>554909</v>
+        <v>554734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9673119103664115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9483289317262017</v>
+        <v>0.9485064699105252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9808167333061709</v>
+        <v>0.980508496546606</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1233</v>
@@ -6987,19 +6987,19 @@
         <v>790108</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>779792</v>
+        <v>779385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>799282</v>
+        <v>798949</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9595158431627945</v>
+        <v>0.9595158431627946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9469883212370821</v>
+        <v>0.9464940662492106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9706578846777831</v>
+        <v>0.9702528576521939</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1760</v>
@@ -7008,19 +7008,19 @@
         <v>1337376</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1321903</v>
+        <v>1323367</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1348873</v>
+        <v>1349739</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9626908355390181</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9515529916626976</v>
+        <v>0.9526066754848531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9709668800498193</v>
+        <v>0.9715899398191741</v>
       </c>
     </row>
     <row r="18">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10362</v>
+        <v>9756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01242271042733181</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04512493657149817</v>
+        <v>0.04248534802634186</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -7133,19 +7133,19 @@
         <v>34343</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22481</v>
+        <v>23125</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51439</v>
+        <v>51694</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04103678496440538</v>
+        <v>0.04103678496440537</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02686218292792788</v>
+        <v>0.02763154302370124</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06146490459970425</v>
+        <v>0.06176921354733403</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -7154,19 +7154,19 @@
         <v>37196</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25684</v>
+        <v>26101</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56654</v>
+        <v>54997</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03487596429948595</v>
+        <v>0.03487596429948596</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02408241218361529</v>
+        <v>0.02447256690590329</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05312027702287111</v>
+        <v>0.0515669811634285</v>
       </c>
     </row>
     <row r="20">
@@ -7183,7 +7183,7 @@
         <v>226777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219268</v>
+        <v>219874</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>229630</v>
@@ -7192,7 +7192,7 @@
         <v>0.9875772895726682</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9548750634285019</v>
+        <v>0.9575146519736589</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7204,19 +7204,19 @@
         <v>802548</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>785452</v>
+        <v>785197</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>814410</v>
+        <v>813766</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9589632150355948</v>
+        <v>0.9589632150355945</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9385350954002959</v>
+        <v>0.9382307864526661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9731378170720723</v>
+        <v>0.9723684569762988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1226</v>
@@ -7225,19 +7225,19 @@
         <v>1029325</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1009867</v>
+        <v>1011524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1040837</v>
+        <v>1040420</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9651240357005141</v>
+        <v>0.965124035700514</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9468797229771296</v>
+        <v>0.9484330188365713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9759175878163848</v>
+        <v>0.9755274330940962</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>87773</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68371</v>
+        <v>70554</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108261</v>
+        <v>112479</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02569394985643618</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0200145063351161</v>
+        <v>0.02065336008906369</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03169161166216383</v>
+        <v>0.03292625433685781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>134</v>
@@ -7350,19 +7350,19 @@
         <v>113880</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94640</v>
+        <v>95321</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136043</v>
+        <v>135241</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03163275446491444</v>
+        <v>0.03163275446491443</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02628857324566522</v>
+        <v>0.02647765607129737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03778916251709306</v>
+        <v>0.03756644375674854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>212</v>
@@ -7371,19 +7371,19 @@
         <v>201652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>175646</v>
+        <v>175844</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>231516</v>
+        <v>236576</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0287412153776345</v>
+        <v>0.02874121537763449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02503456382910501</v>
+        <v>0.02506275635320744</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0329976359001331</v>
+        <v>0.0337187969019274</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3328308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3307820</v>
+        <v>3303602</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3347710</v>
+        <v>3345527</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9743060501435639</v>
+        <v>0.9743060501435638</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9683083883378362</v>
+        <v>0.967073745663142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9799854936648839</v>
+        <v>0.9793466399109364</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5061</v>
@@ -7421,19 +7421,19 @@
         <v>3486178</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3464015</v>
+        <v>3464817</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3505418</v>
+        <v>3504737</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9683672455350857</v>
+        <v>0.9683672455350855</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.962210837482907</v>
+        <v>0.9624335562432516</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9737114267543344</v>
+        <v>0.9735223439287028</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8258</v>
@@ -7442,19 +7442,19 @@
         <v>6814487</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6784623</v>
+        <v>6779563</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6840493</v>
+        <v>6840295</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9712587846223655</v>
+        <v>0.9712587846223654</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.967002364099867</v>
+        <v>0.9662812030980733</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9749654361708949</v>
+        <v>0.9749372436467928</v>
       </c>
     </row>
     <row r="24">
